--- a/Bot Test Spreadsheet.xlsx
+++ b/Bot Test Spreadsheet.xlsx
@@ -4270,7 +4270,7 @@
       </c>
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>Daniel Schroeder</t>
+          <t>Daniel Schroeder Team 2</t>
         </is>
       </c>
       <c r="C61" s="14" t="inlineStr">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="D61" s="14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E61" s="14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F61" s="14" t="n">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="H61" s="14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I61" s="14" t="n">
         <v>0.52</v>
@@ -4304,12 +4304,12 @@
       </c>
       <c r="L61" s="14" t="inlineStr">
         <is>
-          <t>'UNRANKED'</t>
+          <t>UNRANKED</t>
         </is>
       </c>
       <c r="M61" s="14" t="inlineStr">
         <is>
-          <t>'12345'</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="N61" s="21" t="n"/>
@@ -4344,7 +4344,7 @@
         <v>42</v>
       </c>
       <c r="E62" s="6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F62" s="6" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I62" s="6" t="n">
         <v>0.54</v>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="L62" s="6" t="inlineStr">
         <is>
-          <t>'UNRANKED'</t>
+          <t>UNRANKED</t>
         </is>
       </c>
       <c r="M62" s="6" t="inlineStr">
         <is>
-          <t>'54321'</t>
+          <t>54321</t>
         </is>
       </c>
       <c r="N62" s="22" t="n"/>

--- a/Bot Test Spreadsheet.xlsx
+++ b/Bot Test Spreadsheet.xlsx
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C61" s="14" t="inlineStr">
         <is>
-          <t>Chug</t>
+          <t>gurg7#1234</t>
         </is>
       </c>
       <c r="D61" s="14" t="n">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="L61" s="14" t="inlineStr">
         <is>
-          <t>UNRANKED</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="M61" s="14" t="inlineStr">
